--- a/doc/contents.xlsx
+++ b/doc/contents.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25760" yWindow="2960" windowWidth="18160" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="4360" yWindow="460" windowWidth="19660" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$17:$G$18</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>task</t>
   </si>
@@ -53,21 +57,9 @@
     <t>df</t>
   </si>
   <si>
-    <t>documentation</t>
-  </si>
-  <si>
-    <t>http://pandas.pydata.org/pandas-docs/stable/generated/pandas.read_table.html#pandas.read_table</t>
-  </si>
-  <si>
     <t>https://pandas.pydata.org/pandas-docs/stable/generated/pandas.read_excel.html#pandas.read_excel</t>
   </si>
   <si>
-    <t>input tokens</t>
-  </si>
-  <si>
-    <t>output tokens</t>
-  </si>
-  <si>
     <t>no receiver</t>
   </si>
   <si>
@@ -95,13 +87,573 @@
       </rPr>
       <t>`read_excel`</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`Split`</t>
+    </r>
+  </si>
+  <si>
+    <t>df1, df2</t>
+  </si>
+  <si>
+    <t>Prepare Data</t>
+  </si>
+  <si>
+    <t>basic operators</t>
+  </si>
+  <si>
+    <t>cheml</t>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`Merge`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`PyScript`</t>
+    </r>
+  </si>
+  <si>
+    <t>df1, df2, api1, api2, var1, var2</t>
+  </si>
+  <si>
+    <t>df_out1, df_out2, api_out1, api_out2, var_out1, var_out2</t>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`Constant`</t>
+    </r>
+  </si>
+  <si>
+    <t>df, removed_columns_</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>req_parameters</t>
+  </si>
+  <si>
+    <t>input tokens (receivers)</t>
+  </si>
+  <si>
+    <t>output tokens (senders)</t>
+  </si>
+  <si>
+    <t>param_doc</t>
+  </si>
+  <si>
+    <t>requirements</t>
+  </si>
+  <si>
+    <t>filepath_or_buffer = ''</t>
+  </si>
+  <si>
+    <t>http://pandas.pydata.org/pandas-docs/version/0.20/generated/pandas.read_table.html</t>
+  </si>
+  <si>
+    <t>sklearn</t>
+  </si>
+  <si>
+    <t>Pandas_, version: 0.20.2\n\n    .. _Pandas: http://pandas.pydata.org</t>
+  </si>
+  <si>
+    <t>Scikit-learn_, version: 0.18.1\n\n    .. _Scikit-learn_: http://scikit-learn.org/stable/index.html</t>
+  </si>
+  <si>
+    <t>:py:mod:`cheml`, version: 1.3.1</t>
+  </si>
+  <si>
+    <t>:py:mod:`cheml`, version: 1.3.1, Pandas_, version: 0.20.2\n\n    .. _Pandas: http://pandas.pydata.org</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.initialization.Merge`</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.initialization.Split`</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.preprocessing.Constant`</t>
+  </si>
+  <si>
+    <t>l1 = ""</t>
+  </si>
+  <si>
+    <t>Each parameter shows a line of python code in a string format. The parameter names can be any thing and they will be sorted to define the order of compiling lines.</t>
+  </si>
+  <si>
+    <t>io = ''</t>
+  </si>
+  <si>
+    <t>selection = 1</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>:ref:`PolynomialFeatures`</t>
+  </si>
+  <si>
+    <t>Feature Representation</t>
+  </si>
+  <si>
+    <t>df, api</t>
+  </si>
+  <si>
+    <t>filepath_or_buffer = required for the function</t>
+  </si>
+  <si>
+    <t>io = required for the function</t>
+  </si>
+  <si>
+    <t>no parameters =</t>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`RDKitFingerprint`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`Dragon`</t>
+    </r>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`MissingValues`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`Trimmer`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`Uniformer`</t>
+    </r>
+  </si>
+  <si>
+    <t>Preprocessor</t>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`CoulombMatrix`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`BagofBonds`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`DistanceMatrix`</t>
+    </r>
+  </si>
+  <si>
+    <t>dfx, dfy</t>
+  </si>
+  <si>
+    <t>dfx, dfy, api</t>
+  </si>
+  <si>
+    <t>strategy="interpolate", string_as_null = True, inf_as_null = True, missing_values = False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">func_method = required for the block: string - 'fit_transform' or 'transform'   </t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.preprocessing.missing_values`</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.preprocessing.Trimmer`</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.preprocessing.Uniformer`</t>
+  </si>
+  <si>
+    <t>molfile</t>
+  </si>
+  <si>
+    <t>df, removed_rows</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.chem.RDKFingerprint`</t>
+  </si>
+  <si>
+    <t>:py:mod:`cheml`, version: 1.3.1, Pandas_, version: 0.20.2\n\n    .. _Pandas: http://pandas.pydata.org, RDKit_, version: 0.18.1\n\n    .. _RDKit: http://www.rdkit.org</t>
+  </si>
+  <si>
+    <r>
+      <t>removeHs=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, FPtype=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>'Morgan'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, vector=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>'bit'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, nBits=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, radius = 2, path = None, arguments = []</t>
+    </r>
+  </si>
+  <si>
+    <t>script = required for the block: string - 'new' or a path to the script file , output_directory =  required for the block: string - ''</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.chem.Dragon`</t>
+  </si>
+  <si>
+    <t>:py:mod:`cheml`, version: 1.3.1, Pandas_, version: 0.20.2\n\n    .. _Pandas: http://pandas.pydata.org, Dragon_, version: 6 or 7\n\n    .. _Dragon: http://www.talete.mi.it/products/dragon_description.htm</t>
+  </si>
+  <si>
+    <r>
+      <t>CMtype=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>'SC'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, nPerm=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, const=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>const=1</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.chem.CoulombMatrix`</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.chem.DistanceMatrix`</t>
+  </si>
+  <si>
+    <t>feature representation</t>
+  </si>
+  <si>
+    <t>Define Model</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`NN_PSGD`</t>
+    </r>
+  </si>
+  <si>
+    <t>dfy_train_pred, dfy_test_pred, model</t>
+  </si>
+  <si>
+    <t>dfx_train, dfy_train, dfx_test</t>
+  </si>
+  <si>
+    <t>nneurons = required for the function, input_act_funcs = required for the function</t>
+  </si>
+  <si>
+    <t>nneurons=[],input_act_funcs=[],validation_size=0.2,learn_rate=0.001,rms_decay=0.9,n_epochs=10000,
+    batch_size=256,n_cores=1,n_hist=20,n_check=50,threshold=0.1, print_level=1</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.nn.nn_psgd`</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <r>
+      <t>:ref:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>`SaveFile`</t>
+    </r>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>:py:func:`cheml.initialization.SaveFile`</t>
+  </si>
+  <si>
+    <t>filename = required for the function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">filename='', output_directory = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve">, record_time = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, format =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>'csv'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>, index = False, header = True</t>
+    </r>
+  </si>
+  <si>
+    <t>no required parameters for block and function=</t>
+  </si>
+  <si>
+    <t>version = 6,CheckUpdates = True,SaveLayout = True, PreserveTemporaryProjects = True, ShowWorksheet = False,Decimal_Separator = ".",Missing_String = "NaN",DefaultMolFormat = "1",HelpBrowser = "/usr/bin/xdg-open",RejectUnusualValence = False,Add2DHydrogens = False,MaxSRforAllCircuit = "19",MaxSR = "35",MaxSRDetour = "30",MaxAtomWalkPath = "2000",LogPathWalk = True,LogEdge = True,Weights = ["Mass"-"VdWVolume"-"Electronegativity"-"Polarizability"-"Ionization"-"I-State"],SaveOnlyData = False,SaveLabelsOnSeparateFile = False,SaveFormatBlock = "%b-%n.txt",SaveFormatSubBlock = "%b-%s-%n-%m.txt",SaveExcludeMisVal = False,SaveExcludeAllMisVal = False,SaveExcludeConst = False,SaveExcludeNearConst = False,SaveExcludeStdDev = False,SaveStdDevThreshold = "0.0001",SaveExcludeCorrelated = False,SaveCorrThreshold = "0.95",
+                SaveExclusionOptionsToVariables = False,SaveExcludeMisMolecules = False,
+SaveExcludeRejectedMolecules = False,blocks = range(1-30),molInput = "stdin",molInputFormat = "SMILES",molFile = None,SaveStdOut = False,SaveProject = False,SaveProjectFile = "Dragon_project.drp",SaveFile = True,SaveType = "singlefile", SaveFilePath = "Dragon_descriptors.txt",logMode = "file",logFile = "Dragon_log.txt",external = False,fileName = None,delimiter = "-",consecutiveDelimiter = False,MissingValue = "NaN", RejectDisconnectedStrucuture = False, RetainBiggestFragment = False, DisconnectedCalculationOption = "0",RoundCoordinates = True, RoundWeights = True, RoundDescriptorValues = True, knimemode = False</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +688,22 @@
       <color rgb="FF000080"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,26 +722,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,21 +1107,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,19 +1138,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -500,22 +1169,31 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -526,21 +1204,598 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/contents.xlsx
+++ b/doc/contents.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="460" windowWidth="19660" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="5860" yWindow="460" windowWidth="19660" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
   <si>
     <t>task</t>
   </si>
@@ -48,9 +48,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>Enter Data</t>
-  </si>
-  <si>
     <t>pandas</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
   </si>
   <si>
     <t>feature representation</t>
-  </si>
-  <si>
-    <t>Define Model</t>
   </si>
   <si>
     <t>regression</t>
@@ -582,9 +576,6 @@
   </si>
   <si>
     <t>:py:func:`cheml.initialization.SaveFile`</t>
-  </si>
-  <si>
-    <t>filename = required for the function</t>
   </si>
   <si>
     <r>
@@ -647,6 +638,18 @@
     <t>version = 6,CheckUpdates = True,SaveLayout = True, PreserveTemporaryProjects = True, ShowWorksheet = False,Decimal_Separator = ".",Missing_String = "NaN",DefaultMolFormat = "1",HelpBrowser = "/usr/bin/xdg-open",RejectUnusualValence = False,Add2DHydrogens = False,MaxSRforAllCircuit = "19",MaxSR = "35",MaxSRDetour = "30",MaxAtomWalkPath = "2000",LogPathWalk = True,LogEdge = True,Weights = ["Mass"-"VdWVolume"-"Electronegativity"-"Polarizability"-"Ionization"-"I-State"],SaveOnlyData = False,SaveLabelsOnSeparateFile = False,SaveFormatBlock = "%b-%n.txt",SaveFormatSubBlock = "%b-%s-%n-%m.txt",SaveExcludeMisVal = False,SaveExcludeAllMisVal = False,SaveExcludeConst = False,SaveExcludeNearConst = False,SaveExcludeStdDev = False,SaveStdDevThreshold = "0.0001",SaveExcludeCorrelated = False,SaveCorrThreshold = "0.95",
                 SaveExclusionOptionsToVariables = False,SaveExcludeMisMolecules = False,
 SaveExcludeRejectedMolecules = False,blocks = range(1-30),molInput = "stdin",molInputFormat = "SMILES",molFile = None,SaveStdOut = False,SaveProject = False,SaveProjectFile = "Dragon_project.drp",SaveFile = True,SaveType = "singlefile", SaveFilePath = "Dragon_descriptors.txt",logMode = "file",logFile = "Dragon_log.txt",external = False,fileName = None,delimiter = "-",consecutiveDelimiter = False,MissingValue = "NaN", RejectDisconnectedStrucuture = False, RetainBiggestFragment = False, DisconnectedCalculationOption = "0",RoundCoordinates = True, RoundWeights = True, RoundDescriptorValues = True, knimemode = False</t>
+  </si>
+  <si>
+    <t>filename = : required for the function</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Prepare</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1113,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,22 +1141,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1161,34 +1164,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1196,34 +1199,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1231,34 +1234,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1266,34 +1269,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1301,34 +1304,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
         <v>60</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1336,34 +1339,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1371,34 +1374,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1406,34 +1409,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1441,34 +1444,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1476,34 +1479,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>69</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1511,34 +1514,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1546,34 +1549,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1581,34 +1584,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
         <v>76</v>
       </c>
-      <c r="J14" t="s">
-        <v>77</v>
-      </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1616,34 +1619,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1651,34 +1654,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
         <v>81</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="J16" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" t="s">
-        <v>87</v>
-      </c>
       <c r="K16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1686,34 +1689,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
         <v>89</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" t="s">
-        <v>92</v>
-      </c>
       <c r="K17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1732,22 +1735,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1773,26 +1776,26 @@
   <sheetData>
     <row r="1" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
